--- a/src/main/resources/jxls/template/prodplan.xlsx
+++ b/src/main/resources/jxls/template/prodplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsm/Documents/develop/yicheng_dev/smErp/src/main/resources/jxls/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guan/Documents/git/gitee/nmErp/smErp/src/main/resources/jxls/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65AC8B76-57E4-CC49-8BAF-EDB09785C97D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{857D8ECE-5F36-DE44-95B1-45A2937400F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="5940" windowWidth="28800" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,11 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3FBD14A4-95A6-874C-808F-E8686087DD1E}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
@@ -40,53 +40,22 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>U</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">jx:area(lastCell="O4")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{26F15AE9-5F39-774A-8E30-03132F920B5C}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
@@ -97,33 +66,34 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each( items="result.detailVoList" var="item" lastCell="U</t>
+          <t>jx:each( items="result.detailVoList" var="item" lastCell="</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>3</t>
+          <t>O</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
             <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t>")</t>
+          <t xml:space="preserve">3")
+</t>
         </r>
       </text>
     </comment>
@@ -132,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>品种</t>
   </si>
@@ -152,9 +122,6 @@
     <t>数量</t>
   </si>
   <si>
-    <t>延长方式</t>
-  </si>
-  <si>
     <t>压边类型</t>
   </si>
   <si>
@@ -179,114 +146,55 @@
     <t>${item.itemNum}</t>
   </si>
   <si>
-    <t>${item.itemYcTypeValue}</t>
-  </si>
-  <si>
     <t>${item.itemYbTypeValue}</t>
   </si>
   <si>
     <t>${item.itemTotalSq}</t>
   </si>
   <si>
-    <t>生产计划详情信息</t>
-    <rPh sb="0" eb="8">
-      <t>sheng'cha</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单标题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机台编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.macCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>长(m)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>宽(m)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>厚(mm)</t>
     <rPh sb="0" eb="1">
       <t>ji'hu</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.itemTotalWeight}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准件阈值(kg)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>面积(㎡)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>理论重量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <rPh sb="0" eb="2">
-      <t>zhuang'ta</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.itemStatusValue}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="2">
       <t>bei'zh</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${item.itemRemarks}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${item.theoryWeight}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上:${item.thresholdUp}  下:${item.thresholdDown} </t>
-    <rPh sb="0" eb="1">
-      <t>shan</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${item.itemVarietyValue}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注：理论重量计算公式 (长 * 宽 * 数量)/(1/（0.95 * 厚度))</t>
-  </si>
-  <si>
-    <t>${item.orderTitle}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +209,14 @@
       </rPr>
       <t>:${result.totalWi} kg</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待生产产品列表</t>
+    <rPh sb="0" eb="2">
+      <t>dai sheng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,13 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
@@ -368,6 +276,20 @@
       <color rgb="FF676A6C"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,13 +361,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,216 +642,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" customWidth="1"/>
-    <col min="21" max="21" width="39.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="32" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="32" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>11</v>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="15"/>
     </row>
-    <row r="4" spans="1:21" ht="19" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="6" spans="1:21" ht="19" customHeight="1">
-      <c r="T6" s="11"/>
-      <c r="U6"/>
+    <row r="6" spans="1:15" ht="19" customHeight="1">
+      <c r="O6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/main/resources/jxls/template/prodplan.xlsx
+++ b/src/main/resources/jxls/template/prodplan.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guan/Documents/git/gitee/nmErp/smErp/src/main/resources/jxls/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{857D8ECE-5F36-DE44-95B1-45A2937400F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,79 +14,37 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3FBD14A4-95A6-874C-808F-E8686087DD1E}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="4"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="O4")
+jx:area(lastCell="Q4")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{26F15AE9-5F39-774A-8E30-03132F920B5C}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="4"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each( items="result.detailVoList" var="item" lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>O</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3")
+jx:each( items="result.detailVoList" var="item" lastCell="Q3")
 </t>
         </r>
       </text>
@@ -102,7 +54,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>待生产产品列表</t>
+  </si>
   <si>
     <t>品种</t>
   </si>
@@ -110,24 +65,60 @@
     <t>类别</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>订单标题</t>
+  </si>
+  <si>
+    <t>关联客户</t>
+  </si>
+  <si>
+    <t>归属人</t>
+  </si>
+  <si>
+    <t>长(m)</t>
+  </si>
+  <si>
+    <t>宽(m)</t>
+  </si>
+  <si>
+    <t>厚(mm)</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>归属人</t>
-  </si>
-  <si>
     <t>数量</t>
   </si>
   <si>
+    <t>面积(㎡)</t>
+  </si>
+  <si>
+    <t>理论重量</t>
+  </si>
+  <si>
     <t>压边类型</t>
   </si>
   <si>
+    <t>${item.itemVarietyValue}</t>
+  </si>
+  <si>
     <t>${item.itemCgyCodeValue}</t>
   </si>
   <si>
+    <t>${item.itemColorValue}</t>
+  </si>
+  <si>
+    <t>${item.orderTitle}</t>
+  </si>
+  <si>
+    <t>${item.cusName}</t>
+  </si>
+  <si>
+    <t>${item.itemOwner}</t>
+  </si>
+  <si>
     <t>${item.itemLenth}</t>
   </si>
   <si>
@@ -137,67 +128,31 @@
     <t>${item.itemThick}</t>
   </si>
   <si>
-    <t>${item.itemColorValue}</t>
-  </si>
-  <si>
-    <t>${item.itemOwner}</t>
-  </si>
-  <si>
     <t>${item.itemNum}</t>
   </si>
   <si>
+    <t>${item.itemTotalSq}</t>
+  </si>
+  <si>
+    <t>${item.theoryWeight}</t>
+  </si>
+  <si>
     <t>${item.itemYbTypeValue}</t>
   </si>
   <si>
-    <t>${item.itemTotalSq}</t>
-  </si>
-  <si>
-    <t>长(m)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽(m)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚(mm)</t>
-    <rPh sb="0" eb="1">
-      <t>ji'hu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积(㎡)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论重量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <rPh sb="0" eb="2">
-      <t>bei'zh</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.itemRemarks}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.theoryWeight}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.itemVarietyValue}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>注：理论重量计算公式 (长 * 宽 * 数量)/(1/（0.95 * 厚度))</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF676A6C"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>理论总重量</t>
     </r>
     <r>
@@ -205,28 +160,24 @@
         <sz val="14"/>
         <color rgb="FF676A6C"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>:${result.totalWi} kg</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>待生产产品列表</t>
-    <rPh sb="0" eb="2">
-      <t>dai sheng</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,7 +189,6 @@
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -246,22 +196,6 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -269,30 +203,160 @@
       <sz val="14"/>
       <color rgb="FF676A6C"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF676A6C"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,12 +365,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,9 +558,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -337,6 +823,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,39 +838,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -636,168 +1166,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="5" width="18.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.8333333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.8333333333333" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.166666666666667" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+    <col min="14" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
+    <col min="17" max="17" width="25.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="32" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:17">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="Q3" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" customHeight="1" spans="1:16">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="11"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1">
-      <c r="O6"/>
+    <row r="6" customHeight="1" spans="17:17">
+      <c r="Q6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/jxls/template/prodplan.xlsx
+++ b/src/main/resources/jxls/template/prodplan.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>待生产产品列表</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>${item.itemRemarks}</t>
-  </si>
-  <si>
-    <t>注：理论重量计算公式 (长 * 宽 * 数量)/(1/（0.95 * 厚度))</t>
   </si>
   <si>
     <r>
@@ -171,11 +168,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -207,13 +204,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -224,14 +214,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -259,11 +249,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,76 +340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,13 +368,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,145 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,48 +553,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +567,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -656,153 +629,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="5"/>
@@ -1311,9 +1308,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:16">
-      <c r="A4" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1328,7 +1323,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="11"/>
     </row>

--- a/src/main/resources/jxls/template/prodplan.xlsx
+++ b/src/main/resources/jxls/template/prodplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="28800" windowHeight="11140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Author:
-jx:area(lastCell="Q4")
+jx:area(lastCell="N4")
 </t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Author:
-jx:each( items="result.detailVoList" var="item" lastCell="Q3")
+jx:each( items="result.detailVoList" var="item" lastCell="N3")
 </t>
         </r>
       </text>
@@ -86,19 +86,19 @@
     <t>厚(mm)</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>面积(㎡)</t>
+  </si>
+  <si>
+    <t>理论重量</t>
+  </si>
+  <si>
+    <t>压边类型</t>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>面积(㎡)</t>
-  </si>
-  <si>
-    <t>理论重量</t>
-  </si>
-  <si>
-    <t>压边类型</t>
   </si>
   <si>
     <t>${item.itemVarietyValue}</t>
@@ -168,11 +168,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -204,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -233,17 +240,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,14 +293,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -271,56 +301,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,16 +324,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,19 +368,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,157 +464,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,26 +556,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,15 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -640,16 +631,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="5"/>
@@ -1184,16 +1184,13 @@
     <col min="7" max="7" width="15.6666666666667" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.8333333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.3333333333333" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.8333333333333" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0.166666666666667" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
-    <col min="14" max="15" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
-    <col min="17" max="17" width="25.3333333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.6666666666667" customWidth="1"/>
+    <col min="11" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="20.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="25.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1210,11 +1207,8 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1245,25 +1239,20 @@
       <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:17">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1291,23 +1280,23 @@
       <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1319,22 +1308,19 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="11"/>
     </row>
-    <row r="6" customHeight="1" spans="17:17">
-      <c r="Q6"/>
+    <row r="6" customHeight="1" spans="14:14">
+      <c r="N6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
